--- a/biology/Zoologie/Iguanodectes_geisleri/Iguanodectes_geisleri.xlsx
+++ b/biology/Zoologie/Iguanodectes_geisleri/Iguanodectes_geisleri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Iguanodectes geisleri est une espèce de poissons de la famille des Iguanodectidae. Aquarium Glaser[1], principal importateur de poissons tropicaux a suggéré le nom vernaculaire anglais de "Threebanded lizard tetra"[2], littéralement en français « Tétra lézard à trois bandes ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iguanodectes geisleri est une espèce de poissons de la famille des Iguanodectidae. Aquarium Glaser, principal importateur de poissons tropicaux a suggéré le nom vernaculaire anglais de "Threebanded lizard tetra", littéralement en français « Tétra lézard à trois bandes ».
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce de poisson est endémique d'Amérique du sud. Elle se rencontre dans les bassins et rivières de Madeira, rio Negro, et Orinoco[3] (Venezuela)[2]. Le Rio Jufaris, Igarapé de Parica, au Brésil est la localité type, un affluent dans le bassin milieu du Rio Negro.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce de poisson est endémique d'Amérique du sud. Elle se rencontre dans les bassins et rivières de Madeira, rio Negro, et Orinoco (Venezuela). Le Rio Jufaris, Igarapé de Parica, au Brésil est la localité type, un affluent dans le bassin milieu du Rio Negro.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce peuple les Eaux noires[2] de son aire de répartition. L'eau est acide, avec un pH de 4,8 à 6,8, la dureté totale très faible (GH &lt; 3) et la température peut se situer entre 20 et 26 °C[4]. Grégaire, il se rencontre toujours en groupe de plusieurs individus.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce peuple les Eaux noires de son aire de répartition. L'eau est acide, avec un pH de 4,8 à 6,8, la dureté totale très faible (GH &lt; 3) et la température peut se situer entre 20 et 26 °C. Grégaire, il se rencontre toujours en groupe de plusieurs individus.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Iguanodectes geisleri est une petite espèce de poisson assez rare au corps fuselé et de assez petite taille. Il possède un fond de coloration vert/olive avec deux bandes longitudinales plus sombres, une rouge au-dessus d'une verte plus sombre que le corps. Une troisième bande plus claire souvent de couleur jaunâtre est présente en les deux plus sombre. Une tache pigmentée de noir est le plus souvent visible à la base de la nageoire caudale. La nageoire adipeuse est présente. Les nageoires pelviennes et dorsales prennent leur base a la même hauteur. La nageoire anale est assez large. Toutes sont translucides, mais légèrement pigmentées de rouge chez les mâles adultes[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iguanodectes geisleri est une petite espèce de poisson assez rare au corps fuselé et de assez petite taille. Il possède un fond de coloration vert/olive avec deux bandes longitudinales plus sombres, une rouge au-dessus d'une verte plus sombre que le corps. Une troisième bande plus claire souvent de couleur jaunâtre est présente en les deux plus sombre. Une tache pigmentée de noir est le plus souvent visible à la base de la nageoire caudale. La nageoire adipeuse est présente. Les nageoires pelviennes et dorsales prennent leur base a la même hauteur. La nageoire anale est assez large. Toutes sont translucides, mais légèrement pigmentées de rouge chez les mâles adultes.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Iguanodectes: signifie "mordeur Iguana", se référant à la structure des dents[2]. Espèce geisleri: nom de dévouement pour Rolf Geisler (1925-2012)[2]. Iguanodectes: Arawak, Iwana = le nom d'un lézard ; cité par Christophe Colomb et qui a donné aussi le nom de l'île de "Guanahani" en 1492[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iguanodectes: signifie "mordeur Iguana", se référant à la structure des dents. Espèce geisleri: nom de dévouement pour Rolf Geisler (1925-2012). Iguanodectes: Arawak, Iwana = le nom d'un lézard ; cité par Christophe Colomb et qui a donné aussi le nom de l'île de "Guanahani" en 1492.
 </t>
         </is>
       </c>
@@ -635,9 +655,11 @@
           <t>Aquarium</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Aquarium du palais de la Porte Dorée[5] détient un petit groupe de Iguanodectes geisleri (vidéo[6]). Ils sont maintenus dans une petite cuve d'environ 200 litres et en compagnie de quelques poissons characiformes de taille similaires et petites crevettes d'eau douce du genre Caridina. Ils sont aisément observables lors d'une promenade dans l'Aquarium.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Aquarium du palais de la Porte Dorée détient un petit groupe de Iguanodectes geisleri (vidéo). Ils sont maintenus dans une petite cuve d'environ 200 litres et en compagnie de quelques poissons characiformes de taille similaires et petites crevettes d'eau douce du genre Caridina. Ils sont aisément observables lors d'une promenade dans l'Aquarium.
 </t>
         </is>
       </c>
